--- a/matching/out/performance_comparison.xlsx
+++ b/matching/out/performance_comparison.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15570" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="3720" tabRatio="760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F1 comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="consistensy vs aligned tok sim" sheetId="2" r:id="rId2"/>
+    <sheet name="blocking number of comparisons" sheetId="5" r:id="rId3"/>
+    <sheet name="PON transformation" sheetId="6" r:id="rId4"/>
+    <sheet name="phonetic sensitivity" sheetId="3" r:id="rId5"/>
+    <sheet name="sort sensivity" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -100,11 +105,80 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>candidateList.stream().filter(e -&gt; !e.getOriginRefV().equals(e.getDestRefV())).count();</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>strongMap.values().stream().mapToInt(e -&gt; e.size()-1).sum()</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>strongMap.values().stream().mapToInt(e -&gt; e.size()-1).sum()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>candidateList.stream().filter(e -&gt; !e.getOriginRefV().equals(e.getDestRefV())).count();</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>our F1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t xml:space="preserve">CiteSeer </t>
   </si>
@@ -115,9 +189,6 @@
     <t>L2 Jaro-Winkler</t>
   </si>
   <si>
-    <t>best record matching</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -130,23 +201,215 @@
     <t>DBLP_naumann</t>
   </si>
   <si>
-    <t>DBLP_reuther</t>
-  </si>
-  <si>
     <t>best supervised</t>
   </si>
   <si>
-    <t>best unsepervised</t>
+    <t>each ref one cluster</t>
+  </si>
+  <si>
+    <t>شمارش به اندازه تعداد تکرار رفرنس</t>
+  </si>
+  <si>
+    <t>upper bound</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>cluster cnt of giant comp</t>
+  </si>
+  <si>
+    <t>cluster cnt</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>Soundex</t>
+  </si>
+  <si>
+    <t>Metaphone</t>
+  </si>
+  <si>
+    <t>Oxford name compression algorithm (ONCA)</t>
+  </si>
+  <si>
+    <t>New York State Identification and Intelligence System (NYSIIS)</t>
+  </si>
+  <si>
+    <t>Roger Root Name Coding </t>
+  </si>
+  <si>
+    <t>Statistics Canada Name Coding (StatCan)</t>
+  </si>
+  <si>
+    <t>تعداد گره تنها</t>
+  </si>
+  <si>
+    <t>تعداد گره کل</t>
+  </si>
+  <si>
+    <t>تعداد مقایسه ها با بلاک بندی فقط با یک توکن مشترک</t>
+  </si>
+  <si>
+    <t>تعداد مقایسه ها بدون بلاک بندی</t>
+  </si>
+  <si>
+    <t>تعداد یال کل (بدون جهت)</t>
+  </si>
+  <si>
+    <t>تعداد یال جهت دار (تعداد مقایسه ها)</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>proposed framework</t>
+  </si>
+  <si>
+    <t>DBLP</t>
+  </si>
+  <si>
+    <t>name transformation</t>
+  </si>
+  <si>
+    <t>Infomap</t>
+  </si>
+  <si>
+    <t>Louvian</t>
+  </si>
+  <si>
+    <t>Label propagation</t>
+  </si>
+  <si>
+    <t>Fast greedy</t>
+  </si>
+  <si>
+    <t>Leading eigenvector</t>
+  </si>
+  <si>
+    <t>Connected component</t>
+  </si>
+  <si>
+    <t>Proposed clustering</t>
+  </si>
+  <si>
+    <t>تعداد کل کامپوننت ها</t>
+  </si>
+  <si>
+    <t>تعداد گره های بزرگترین کامپوننت</t>
+  </si>
+  <si>
+    <t>نسبت گره های بزرگترین کامپوننت</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>The number of comparisons</t>
+  </si>
+  <si>
+    <t>without blocking</t>
+  </si>
+  <si>
+    <t>one common token condition</t>
+  </si>
+  <si>
+    <t>Arxiv</t>
+  </si>
+  <si>
+    <t>CiteSeer</t>
+  </si>
+  <si>
+    <t>both conditions</t>
+  </si>
+  <si>
+    <t>185,106 (15.95%)</t>
+  </si>
+  <si>
+    <t>6,404,812 (07.74%)</t>
+  </si>
+  <si>
+    <t>references count</t>
+  </si>
+  <si>
+    <t>F1 gap</t>
+  </si>
+  <si>
+    <t>32,073 (0.039%)</t>
+  </si>
+  <si>
+    <t>79,640 (0.034%)</t>
+  </si>
+  <si>
+    <t>1,588 (0.137%)</t>
+  </si>
+  <si>
+    <t>5,767,888 (02.48%)</t>
+  </si>
+  <si>
+    <t>Max achievable Performance</t>
+  </si>
+  <si>
+    <t>achieved F1</t>
+  </si>
+  <si>
+    <t>with PON transformation</t>
+  </si>
+  <si>
+    <t>without PON transformation</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>gap to max</t>
+  </si>
+  <si>
+    <t>comparisons count</t>
+  </si>
+  <si>
+    <t>inconsistents count</t>
+  </si>
+  <si>
+    <t>maked consistent</t>
+  </si>
+  <si>
+    <t>true positives count</t>
+  </si>
+  <si>
+    <t>true transformations</t>
+  </si>
+  <si>
+    <t>proportion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +445,30 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -212,21 +499,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Console"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -272,67 +667,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>our vs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> best previous unsupervised vs hybrid</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fa-IR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -348,7 +683,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our F1</c:v>
+                  <c:v>proposed framework</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,7 +710,7 @@
                   <c:v>Arxiv </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DBLP_reuther</c:v>
+                  <c:v>DBLP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -413,15 +748,20 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>best unsepervised</c:v>
+                  <c:v>name transformation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="trellis">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -440,7 +780,7 @@
                   <c:v>Arxiv </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DBLP_reuther</c:v>
+                  <c:v>DBLP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -484,9 +824,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +850,7 @@
                   <c:v>Arxiv </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DBLP_reuther</c:v>
+                  <c:v>DBLP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -542,7 +887,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="125"/>
         <c:overlap val="-27"/>
         <c:axId val="1548889104"/>
         <c:axId val="1548885360"/>
@@ -620,6 +965,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.6419753086419748E-2"/>
+              <c:y val="0.43973232214633762"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fa-IR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -655,6 +1063,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -664,8 +1111,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,6 +1141,1200 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fa-IR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>comparison of community</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> detection methods with the proposed framework</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fa-IR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'consistensy vs aligned tok sim'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'consistensy vs aligned tok sim'!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'consistensy vs aligned tok sim'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Proposed clustering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Label propagation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Infomap</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Louvian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fast greedy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Leading eigenvector</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Connected component</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'consistensy vs aligned tok sim'!$B$2:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'consistensy vs aligned tok sim'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95231699999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57567500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4047999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5513E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9459999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0769999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B833-4754-AACB-F8F48E758A1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="572580511"/>
+        <c:axId val="572576351"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Precision</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed clustering</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Label propagation</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Infomap</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Louvian</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Fast greedy</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Leading eigenvector</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Connected component</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$C$2:$C$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$C$3:$C$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.97979799999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.53150500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.41647000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3989E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.86E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.9899999999999996E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.5410000000000001E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B833-4754-AACB-F8F48E758A1C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Recall</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed clustering</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Label propagation</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Infomap</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Louvian</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Fast greedy</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Leading eigenvector</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Connected component</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$D$2:$D$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$D$3:$D$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.92633600000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.92294399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.93192299999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.94051700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.94151600000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.933867</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.94198700000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B833-4754-AACB-F8F48E758A1C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cluster cnt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed clustering</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Label propagation</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Infomap</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Louvian</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Fast greedy</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Leading eigenvector</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Connected component</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$E$2:$E$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$E$3:$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>8895</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3168</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2722</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1930</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5BC4-4FFC-8899-1E4E740F73BF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>cluster cnt of giant comp</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$2:$A$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$A$3:$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>Proposed clustering</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Label propagation</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Infomap</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Louvian</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Fast greedy</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Leading eigenvector</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Connected component</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$F$2:$F$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'consistensy vs aligned tok sim'!$F$3:$F$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2831</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>802</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>70</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5BC4-4FFC-8899-1E4E740F73BF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="572580511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572576351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572576351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572580511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fa-IR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fa-IR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PON transformation'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fa-IR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'PON transformation'!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CiteSeer </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arxiv </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PON transformation'!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7586347013409682E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7706247003204183E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6239325189973952E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7394-4110-97E4-B40103EC1CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1218575888"/>
+        <c:axId val="1218574640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1218575888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218574640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1218574640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fa-IR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fa-IR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218575888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -772,6 +2412,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1275,20 +2995,1098 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>80009</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127747</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6163</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1315,12 +4113,55 @@
   <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="dataset"/>
-    <tableColumn id="2" name="our F1" dataDxfId="5"/>
-    <tableColumn id="3" name="best unsepervised" dataDxfId="4"/>
-    <tableColumn id="7" name="best supervised" dataDxfId="3"/>
-    <tableColumn id="4" name="L2 Jaro-Winkler" dataDxfId="2"/>
-    <tableColumn id="5" name="best record matching" dataDxfId="1"/>
-    <tableColumn id="6" name="desc" dataDxfId="0"/>
+    <tableColumn id="2" name="proposed framework" dataDxfId="20"/>
+    <tableColumn id="3" name="name transformation" dataDxfId="19"/>
+    <tableColumn id="7" name="best supervised" dataDxfId="18"/>
+    <tableColumn id="4" name="L2 Jaro-Winkler" dataDxfId="17"/>
+    <tableColumn id="5" name="each ref one cluster" dataDxfId="16"/>
+    <tableColumn id="6" name="desc" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9"/>
+  <sortState ref="A2:D9">
+    <sortCondition descending="1" ref="B1:B9"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="method"/>
+    <tableColumn id="2" name="F1" dataDxfId="14"/>
+    <tableColumn id="3" name="Precision" dataDxfId="13"/>
+    <tableColumn id="4" name="Recall" dataDxfId="12"/>
+    <tableColumn id="5" name="cluster cnt"/>
+    <tableColumn id="6" name="cluster cnt of giant comp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D7" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:D7"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="method"/>
+    <tableColumn id="2" name="F1" dataDxfId="10"/>
+    <tableColumn id="3" name="precision" dataDxfId="9"/>
+    <tableColumn id="4" name="recall" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C32" totalsRowCount="1" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:C31"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="F1" totalsRowFunction="stdDev" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="precision" totalsRowFunction="stdDev" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="recall" totalsRowFunction="stdDev" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1591,46 +4432,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
     <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.96393742381145797</v>
@@ -1642,14 +4485,16 @@
       <c r="E2" s="1">
         <v>0.85670000000000002</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0.50193246541903902</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.95215295333208205</v>
@@ -1663,12 +4508,14 @@
       <c r="E3" s="1">
         <v>0.63519999999999999</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0.65461650535799398</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>0.86172768329009297</v>
@@ -1682,12 +4529,16 @@
       <c r="E4" s="1">
         <v>0.33810000000000001</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1">
+        <v>0.513598577926491</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="1"/>
@@ -1709,4 +4560,1439 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.99387800000000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.99459399999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.99316400000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.95231699999999997</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.97979799999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.92633600000000005</v>
+      </c>
+      <c r="E3">
+        <v>8895</v>
+      </c>
+      <c r="F3">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.67454999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.53150500000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92294399999999999</v>
+      </c>
+      <c r="E4">
+        <v>3168</v>
+      </c>
+      <c r="F4">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.57567500000000005</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.41647000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.93192299999999995</v>
+      </c>
+      <c r="E5">
+        <v>2722</v>
+      </c>
+      <c r="F5">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.4047999999999998E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.3989E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.94051700000000005</v>
+      </c>
+      <c r="E6">
+        <v>1930</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.5513E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.86E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.94151600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.9459999999999999E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.933867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.0769999999999999E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.5410000000000001E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.94198700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8">
+        <v>12863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>17425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>23778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6404812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B12*(B12-1)/2</f>
+        <v>82721953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B22/B12</f>
+        <v>0.33988960584622563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6109B871-47C4-4DA0-8497-2413FA94C70F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6109B871-47C4-4DA0-8497-2413FA94C70F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1524</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1160526</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.98301810046776406</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.96737716401481</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.96393742381145797</v>
+      </c>
+      <c r="J3" s="19">
+        <f>F3-I3</f>
+        <v>1.9080676656306084E-2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="8">
+        <v>12863</v>
+      </c>
+      <c r="C4" s="17">
+        <v>82721953</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.96948341630568302</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.94077420164376602</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.95215295333208205</v>
+      </c>
+      <c r="J4" s="19">
+        <f>F4-I4</f>
+        <v>1.7330462973600969E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="8">
+        <v>21550</v>
+      </c>
+      <c r="C5" s="17">
+        <v>232190475</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.94673629242819801</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.89885969261279097</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.86172768329009297</v>
+      </c>
+      <c r="J5" s="19">
+        <f>F5-I5</f>
+        <v>8.500860913810504E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" s="20">
+        <f>1588/C3</f>
+        <v>1.3683450435406014E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="20">
+        <f>32073/C4</f>
+        <v>3.8772053653036938E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D11" s="20">
+        <f>5767888/C5</f>
+        <v>2.4841191267643517E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <f>79640/C5</f>
+        <v>3.4299425934677122E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="10" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.96393742381145797</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99705789639592302</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.93294661291908298</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.96393742381145797</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.99705789639592302</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.93294661291908298</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.960178789110117</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.99704641350210899</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.92594043887147304</v>
+      </c>
+      <c r="K3" s="1">
+        <f>E3-H3</f>
+        <v>3.7586347013409682E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:M3" si="0">F3-I3</f>
+        <v>1.1482893814029893E-5</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0061740476099477E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <f>B3-H3</f>
+        <v>3.7586347013409682E-3</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:P3" si="1">C3-I3</f>
+        <v>1.1482893814029893E-5</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0061740476099477E-3</v>
+      </c>
+      <c r="Q3">
+        <v>629</v>
+      </c>
+      <c r="R3">
+        <v>287</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="20">
+        <f>S3/R3</f>
+        <v>1.0452961672473868E-2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3" s="11">
+        <f>U3/S3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95357892868762695</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.96671909131934697</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.94079119192379002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95216635252991699</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.97977495384945301</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.92607104743784097</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.95118929005988495</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.98044263505557805</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.92363102598031699</v>
+      </c>
+      <c r="K4" s="1">
+        <f>E4-H4</f>
+        <v>9.7706247003204183E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L5" si="2">F4-I4</f>
+        <v>-6.6768120612503701E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M5" si="3">G4-J4</f>
+        <v>2.4400214575239776E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4" si="4">B4-H4</f>
+        <v>2.3896386277419968E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4" si="5">C4-I4</f>
+        <v>-1.3723543736231081E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4" si="6">D4-J4</f>
+        <v>1.7160165943473027E-2</v>
+      </c>
+      <c r="Q4">
+        <v>16428</v>
+      </c>
+      <c r="R4">
+        <v>12525</v>
+      </c>
+      <c r="S4">
+        <v>66</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" ref="T4:T5" si="7">S4/R4</f>
+        <v>5.2694610778443113E-3</v>
+      </c>
+      <c r="U4">
+        <v>42</v>
+      </c>
+      <c r="V4" s="11">
+        <f>U4/S4</f>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>0.86152712594704495</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.75673926501209898</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.845287800757071</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.73203331644999703</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5" si="8">E5-H5</f>
+        <v>1.6239325189973952E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4705948562101954E-2</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5">
+        <v>66707</v>
+      </c>
+      <c r="R5">
+        <v>64824</v>
+      </c>
+      <c r="S5">
+        <v>262</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="7"/>
+        <v>4.0417129458225351E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.7586347013409682E-3</v>
+      </c>
+      <c r="C25">
+        <v>287</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.7706247003204183E-4</v>
+      </c>
+      <c r="C26">
+        <v>12525</v>
+      </c>
+      <c r="D26">
+        <v>66</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.6239325189973952E-2</v>
+      </c>
+      <c r="C27">
+        <v>64824</v>
+      </c>
+      <c r="D27">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.95200234694242203</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.98027733181219401</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.92531275284745096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.89919279003883801</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98405389202972204</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.82780592439301504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.95017063526303402</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.97821189263697905</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.92369222937452899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95030402888460197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.97740071517498495</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.92466922872124901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95066818374495199</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9777759080931</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.92502297444951698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.91944836164565802</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.923542486888556</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.91539037525559397</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.88"/>
+        <cfvo type="num" val="0.98"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0.88"/>
+        <cfvo type="num" val="0.98"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.88"/>
+        <cfvo type="num" val="0.98"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0.95208213300460998</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.97974644758512297</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.92593718734480301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>0.95175042945735</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.97948094166453403</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.92554686832745303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>0.95184632744139996</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.97951861860205702</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.92569461334445102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>0.95222221064213397</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.97986827046381098</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.92609335926243896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>0.95154749676209105</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.97961932991152201</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.92503969006293896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>0.95181427752677605</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.97955062858683595</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.92560540609401598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>0.95224824066588898</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.97971424720312705</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.92628024108878004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>0.95244673218278197</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.97944813355498594</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.92689413802994003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>0.95261631846456496</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.98033443114368901</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.92642251872964199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>0.95199593874774002</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.97967628516932603</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.92583680448477101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>0.95204228235381705</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.97979318196095599</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.92582007502544506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>0.95223072181709301</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.97982385319976495</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.92614914108554902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>0.95175663828121304</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.97934739989217201</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.92567788635541004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>0.95225671564444703</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.98023189507698105</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.92583401622136496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>0.95188969673151202</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.97957301566875599</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.92572806819432096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>0.95176597565968202</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.97963877520061604</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.92543537766506401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>0.95243284606440604</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.97971809934517196</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.92662620761576397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>0.95209539831177104</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.97969025260803599</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.92601248135760095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>0.95233012368174996</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.97965356231115597</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.92648948018636801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>0.95198199324746702</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.97957495565433905</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.92590093677153995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>0.95245973656582406</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.98027768794667502</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.92617703320875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>0.95218810903844697</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.97986161756684698</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.92603479182533999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>0.951606227798802</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.97971570722196799</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.92506476402738103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>0.95210352035924195</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.97991041670178303</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.92583122796603401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>0.95244123100292599</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.980366608518635</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.92606268063688402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>0.95195352569590097</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.97976755054664699</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.92567509855215502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>0.95193161039007401</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.980121088725318</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.92531832636394995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>0.95195767416310695</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.97959524440515999</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.92583680448477101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>0.95196955059742205</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.97941131428221295</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.92602363652686104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>0.95183819753795595</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.97917693784622095</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.92598459399976796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <f>SUBTOTAL(107,Table4[F1])</f>
+        <v>2.6973099629621722E-4</v>
+      </c>
+      <c r="B32" s="9">
+        <f>SUBTOTAL(107,Table4[precision])</f>
+        <v>2.8924574888168132E-4</v>
+      </c>
+      <c r="C32" s="9">
+        <f>SUBTOTAL(107,Table4[recall])</f>
+        <v>4.1258817431982249E-4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <f>AVERAGE(Table4[F1])</f>
+        <v>0.95206006266127319</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>